--- a/src/attributions/attributions_saliency_traj_220.xlsx
+++ b/src/attributions/attributions_saliency_traj_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG6"/>
+  <dimension ref="A1:GG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02256583794951439</v>
+        <v>0.02873076871037483</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01021707803010941</v>
+        <v>0.1116093099117279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006969302892684937</v>
+        <v>0.004621850326657295</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01705978997051716</v>
+        <v>0.05220101773738861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0556238628923893</v>
+        <v>0.002616685349494219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06215144693851471</v>
+        <v>0.02502529323101044</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01159175671637058</v>
+        <v>0.008562258444726467</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02765966579318047</v>
+        <v>0.01380632258951664</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01063509937375784</v>
+        <v>0.0006872834637761116</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01200415566563606</v>
+        <v>0.007818816229701042</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005324441939592361</v>
+        <v>0.08323274552822113</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008482217788696289</v>
+        <v>0.0005859872326254845</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002376368502154946</v>
+        <v>0.05487791821360588</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05083600431680679</v>
+        <v>0.006699407938867807</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06331361830234528</v>
+        <v>0.00353578757494688</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0006193870212882757</v>
+        <v>0.007374068722128868</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02806634828448296</v>
+        <v>0.01893114484846592</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02074646390974522</v>
+        <v>0.002842823043465614</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004608862567692995</v>
+        <v>0.00617648009210825</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002899568527936935</v>
+        <v>0.008771293796598911</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000161770498380065</v>
+        <v>0.01705817505717278</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01207625959068537</v>
+        <v>0.01297957263886929</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0006866661715321243</v>
+        <v>0.0166766382753849</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009487457573413849</v>
+        <v>0.01141720917075872</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001797089586034417</v>
+        <v>0.008079007267951965</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.009690739214420319</v>
+        <v>0.008437091484665871</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00132476189173758</v>
+        <v>0.0007713839877396822</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.002169430954381824</v>
+        <v>0.01756877079606056</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.009671685285866261</v>
+        <v>0.001536885043606162</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.002901093801483512</v>
+        <v>0.02280838415026665</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01372649148106575</v>
+        <v>0.02817384898662567</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02501284703612328</v>
+        <v>0.009630003944039345</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00810640212148428</v>
+        <v>0.01060313358902931</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0009588178945705295</v>
+        <v>0.01210359297692776</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.009102325886487961</v>
+        <v>0.01339475903660059</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002571998396888375</v>
+        <v>0.01325333304703236</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004755736328661442</v>
+        <v>0.01407882943749428</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.007803312968462706</v>
+        <v>0.009314815513789654</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01457476802170277</v>
+        <v>0.007649695966392756</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.003076120745390654</v>
+        <v>0.0003522512270137668</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01261771749705076</v>
+        <v>0.003113906132057309</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.003700243309140205</v>
+        <v>0.01665794476866722</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001596928923390806</v>
+        <v>0.001712435157969594</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.009715932421386242</v>
+        <v>0.01747103594243526</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.008054178208112717</v>
+        <v>0.009143784642219543</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.008742189966142178</v>
+        <v>0.01192042045295238</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01419197395443916</v>
+        <v>0.04623421654105186</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02066400460898876</v>
+        <v>0.007152605336159468</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.005166556686162949</v>
+        <v>0.01433160807937384</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.006671912502497435</v>
+        <v>0.0139432717114687</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.02012838236987591</v>
+        <v>0.006583970971405506</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0005633223336189985</v>
+        <v>0.007632349617779255</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.01725761592388153</v>
+        <v>0.009700275957584381</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.008268853649497032</v>
+        <v>0.006179624702781439</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0004194774082861841</v>
+        <v>0.0001439368352293968</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.007547654211521149</v>
+        <v>0.03329303488135338</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.003421396017074585</v>
+        <v>0.009373150765895844</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01155961025506258</v>
+        <v>0.02267293445765972</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01002776622772217</v>
+        <v>0.004371541552245617</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.009839698672294617</v>
+        <v>0.008037358522415161</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.003556042443960905</v>
+        <v>0.01230668462812901</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.001974680926650763</v>
+        <v>0.007416736334562302</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.008626478724181652</v>
+        <v>0.004361883737146854</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001335506211034954</v>
+        <v>0.0001605572178959846</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01102135144174099</v>
+        <v>0.004303509369492531</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.004569421987980604</v>
+        <v>0.004904382396489382</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01645373180508614</v>
+        <v>0.01612488180398941</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.008687909692525864</v>
+        <v>0.004294083919376135</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.009348660707473755</v>
+        <v>0.01608387939631939</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0008033527992665768</v>
+        <v>0.006698321551084518</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.005405951756983995</v>
+        <v>0.005462817382067442</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.006731509231030941</v>
+        <v>0.01006276998668909</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.008294296450912952</v>
+        <v>0.02352827414870262</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.01218184735625982</v>
+        <v>0.03759457170963287</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00110690004657954</v>
+        <v>0.00083542475476861</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0159694105386734</v>
+        <v>0.01505115814507008</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.02146298810839653</v>
+        <v>0.008850343525409698</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.01792030967772007</v>
+        <v>0.01435257308185101</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.002774918917566538</v>
+        <v>0.007447961252182722</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.007361412979662418</v>
+        <v>0.0122394971549511</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.007641906850039959</v>
+        <v>0.01410156302154064</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.003501042490825057</v>
+        <v>0.00163859617896378</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.007470294367522001</v>
+        <v>0.01571455411612988</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.001783236162737012</v>
+        <v>0.001796015538275242</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.01027640327811241</v>
+        <v>0.01393744070082903</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01370022259652615</v>
+        <v>0.002617180347442627</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01121554989367723</v>
+        <v>0.0007467972463928163</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.004224005155265331</v>
+        <v>0.004310085438191891</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.005416558124125004</v>
+        <v>0.004981462378054857</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0002991323126479983</v>
+        <v>0.0007910322165116668</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.00279949395917356</v>
+        <v>0.002477696631103754</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.003007360734045506</v>
+        <v>0.001261137309484184</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.003302442375570536</v>
+        <v>0.005096497479826212</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.000587195623666048</v>
+        <v>0.01276405714452267</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002817386761307716</v>
+        <v>0.004484947770833969</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.02636771090328693</v>
+        <v>0.01886386424303055</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002521585905924439</v>
+        <v>9.921437595039606e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02266450598835945</v>
+        <v>0.01586257107555866</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.002123282756656408</v>
+        <v>0.007953046821057796</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.005291114095598459</v>
+        <v>0.000884364009834826</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.008929542265832424</v>
+        <v>0.01728248409926891</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002729723230004311</v>
+        <v>0.006791970692574978</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.007558758836239576</v>
+        <v>0.01364513207226992</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01408922672271729</v>
+        <v>0.001689744414761662</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00976866390556097</v>
+        <v>0.00293262000195682</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.002182224299758673</v>
+        <v>0.001230734633281827</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00668012723326683</v>
+        <v>0.001769196707755327</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0001915842003654689</v>
+        <v>8.503682329319417e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01573430746793747</v>
+        <v>0.00550653412938118</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01697856560349464</v>
+        <v>0.06518051028251648</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.009029782377183437</v>
+        <v>0.01678365096449852</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01094608940184116</v>
+        <v>0.05345290526747704</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01006034761667252</v>
+        <v>0.01568242534995079</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002864275593310595</v>
+        <v>0.01914634183049202</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.005548615008592606</v>
+        <v>0.01056093070656061</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.001978456508368254</v>
+        <v>0.001764482469297945</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001032950356602669</v>
+        <v>0.00653304997831583</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.008395759388804436</v>
+        <v>0.01681044884026051</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.006234912201762199</v>
+        <v>0.0127821322530508</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.688074553385377e-05</v>
+        <v>0.00451612938195467</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.006531651597470045</v>
+        <v>0.0235274713486433</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.007856009528040886</v>
+        <v>0.01939312927424908</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.009561637416481972</v>
+        <v>0.00106073310598731</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001524401362985373</v>
+        <v>0.00230245222337544</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.006600219756364822</v>
+        <v>0.004022848792374134</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001337341964244843</v>
+        <v>0.002768096746876836</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.003622394520789385</v>
+        <v>0.003463942091912031</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.002180008683353662</v>
+        <v>0.01142720691859722</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001323873875662684</v>
+        <v>0.01683999970555305</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01993652619421482</v>
+        <v>0.01528366189450026</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0002238076413050294</v>
+        <v>0.01872441172599792</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.003503011306747794</v>
+        <v>0.01819497346878052</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001279439078643918</v>
+        <v>0.004620381630957127</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01490266248583794</v>
+        <v>0.01479422859847546</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.008725636638700962</v>
+        <v>0.0105861546471715</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.006800592876970768</v>
+        <v>0.000307865790091455</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.006717016454786062</v>
+        <v>0.01210241951048374</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.003109430428594351</v>
+        <v>0.006293403916060925</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.008945133537054062</v>
+        <v>0.0006261996459215879</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01790409535169601</v>
+        <v>0.01006779447197914</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.02060047164559364</v>
+        <v>0.004670613445341587</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0001369280798826367</v>
+        <v>0.004038861952722073</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.001278566429391503</v>
+        <v>0.004084735177457333</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.003581074997782707</v>
+        <v>0.0002027308219112456</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.003105477197095752</v>
+        <v>0.003306794678792357</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.008457242511212826</v>
+        <v>0.003503809217363596</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0003434571553952992</v>
+        <v>0.01396636944264174</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004592130891978741</v>
+        <v>0.01401528343558311</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003671539481729269</v>
+        <v>0.00713324174284935</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00832047313451767</v>
+        <v>0.03485336154699326</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.008992936462163925</v>
+        <v>0.002897507511079311</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01175220496952534</v>
+        <v>0.02543583139777184</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.007021208293735981</v>
+        <v>0.01562250033020973</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.004288463853299618</v>
+        <v>0.00165833905339241</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.006498041097074747</v>
+        <v>0.01787697523832321</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.003021721495315433</v>
+        <v>0.00574906961992383</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006780998781323433</v>
+        <v>0.01398943737149239</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01396548561751842</v>
+        <v>0.003701298031955957</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.009530862793326378</v>
+        <v>0.0001947756391018629</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.000617603596765548</v>
+        <v>0.007153202779591084</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.002939716447144747</v>
+        <v>0.001602721400558949</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.002848049625754356</v>
+        <v>0.001456058816984296</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.007804283406585455</v>
+        <v>0.005039186682552099</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.00414851913228631</v>
+        <v>0.009181225672364235</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003040646901354194</v>
+        <v>0.01977245137095451</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00461328960955143</v>
+        <v>0.009165313094854355</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01350098010152578</v>
+        <v>0.009878839366137981</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00395576236769557</v>
+        <v>0.004558397457003593</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00105289975181222</v>
+        <v>0.008420073427259922</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01389347203075886</v>
+        <v>0.00226597604341805</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.003435690421611071</v>
+        <v>0.02416479215025902</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.002625416032969952</v>
+        <v>0.0007699700072407722</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002828219905495644</v>
+        <v>0.0191699955612421</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.002968361368402839</v>
+        <v>0.03953048586845398</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.004224726464599371</v>
+        <v>0.007213826756924391</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.01031353324651718</v>
+        <v>0.002560533350333571</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01557605806738138</v>
+        <v>0.01257903128862381</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.008031489327549934</v>
+        <v>0.009499998763203621</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.003805515822023153</v>
+        <v>0.01106452010571957</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.002442741300910711</v>
+        <v>0.007504773326218128</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01728677190840244</v>
+        <v>0.009072796441614628</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01234698295593262</v>
+        <v>0.01872683688998222</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.002341563580557704</v>
+        <v>0.01396538782864809</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0110212154686451</v>
+        <v>0.005889917258173227</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.006754525005817413</v>
+        <v>0.04301844909787178</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.006631335243582726</v>
+        <v>0.01559008378535509</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.005520735401660204</v>
+        <v>0.003536393400281668</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.003666408360004425</v>
+        <v>0.003935519605875015</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.005071614403277636</v>
+        <v>0.0105601754039526</v>
       </c>
     </row>
     <row r="3">
@@ -2142,1709 +2142,4554 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1169619858264923</v>
+        <v>0.2419874966144562</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1703557223081589</v>
+        <v>0.3175024092197418</v>
       </c>
       <c r="C4" t="n">
-        <v>1.849985837936401</v>
+        <v>0.4312367141246796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4444909691810608</v>
+        <v>0.05816847831010818</v>
       </c>
       <c r="E4" t="n">
-        <v>1.748036742210388</v>
+        <v>0.4692943692207336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3807114660739899</v>
+        <v>0.1272314488887787</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1700709611177444</v>
+        <v>0.1774743497371674</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2860723733901978</v>
+        <v>0.0793449655175209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.648827850818634</v>
+        <v>0.01454154774546623</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3952484130859375</v>
+        <v>0.1231961101293564</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1404763162136078</v>
+        <v>0.252052366733551</v>
       </c>
       <c r="L4" t="n">
-        <v>1.964141726493835</v>
+        <v>0.3032116889953613</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3527885377407074</v>
+        <v>0.0480964332818985</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24986457824707</v>
+        <v>0.4561633467674255</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07206046581268311</v>
+        <v>0.0628422349691391</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4261516928672791</v>
+        <v>0.1700263470411301</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.260035514831543</v>
+        <v>0.1805139034986496</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7588441371917725</v>
+        <v>0.06224750727415085</v>
       </c>
       <c r="S4" t="n">
-        <v>0.010260920971632</v>
+        <v>0.01373520214110613</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4275953769683838</v>
+        <v>0.1137356981635094</v>
       </c>
       <c r="U4" t="n">
-        <v>0.345782071352005</v>
+        <v>0.09510784596204758</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1878135949373245</v>
+        <v>0.06842254102230072</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05803421512246132</v>
+        <v>0.1036206856369972</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01413488015532494</v>
+        <v>0.007811346556991339</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01539461314678192</v>
+        <v>0.001788591034710407</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1407040059566498</v>
+        <v>0.05465508997440338</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1803924739360809</v>
+        <v>0.03754644095897675</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2341811656951904</v>
+        <v>0.027369175106287</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2513012886047363</v>
+        <v>0.04697010666131973</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1166538447141647</v>
+        <v>0.04384022951126099</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1982073783874512</v>
+        <v>0.148855909705162</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.004500344395637512</v>
+        <v>0.115091547369957</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1709691733121872</v>
+        <v>0.09690546989440918</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03250840306282043</v>
+        <v>0.01669390499591827</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2730558514595032</v>
+        <v>0.02879108302295208</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6119212508201599</v>
+        <v>0.02755728736519814</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2424707263708115</v>
+        <v>0.008985064923763275</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01707655191421509</v>
+        <v>0.1506858021020889</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.3751404285430908</v>
+        <v>0.06659192591905594</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.09785722196102142</v>
+        <v>0.01266211643815041</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1881952583789825</v>
+        <v>0.07068351656198502</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1983629763126373</v>
+        <v>0.002887518843635917</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01725073158740997</v>
+        <v>0.02968334034085274</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1576686352491379</v>
+        <v>0.0281120091676712</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02033921889960766</v>
+        <v>0.003271305002272129</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.04609929025173187</v>
+        <v>0.02961619198322296</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1333315372467041</v>
+        <v>0.08102496713399887</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.5687911510467529</v>
+        <v>0.2730127573013306</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.3681016564369202</v>
+        <v>0.00995283666998148</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.2056702524423599</v>
+        <v>0.4732679426670074</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.306333601474762</v>
+        <v>0.0891556590795517</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3669506013393402</v>
+        <v>0.01613960973918438</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.09072283655405045</v>
+        <v>0.1939316689968109</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.2725434303283691</v>
+        <v>0.03975377604365349</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.188245564699173</v>
+        <v>0.1710061430931091</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.004231370985507965</v>
+        <v>0.2406853139400482</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.5060455799102783</v>
+        <v>0.03760176151990891</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1407777965068817</v>
+        <v>0.2250770628452301</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9863964319229126</v>
+        <v>0.2936468422412872</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1412395238876343</v>
+        <v>0.2111667692661285</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.04240040481090546</v>
+        <v>0.01300744526088238</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1059385538101196</v>
+        <v>0.2467895150184631</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1355097889900208</v>
+        <v>0.1560968607664108</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1497603803873062</v>
+        <v>0.142820730805397</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01708806306123734</v>
+        <v>0.06597904860973358</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.7006015777587891</v>
+        <v>0.03524661809206009</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03574806451797485</v>
+        <v>0.2075847089290619</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3082844913005829</v>
+        <v>0.2387544512748718</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1370798647403717</v>
+        <v>0.02070414088666439</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.2120191901922226</v>
+        <v>0.04836613684892654</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.03871983289718628</v>
+        <v>0.1111690625548363</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0603189617395401</v>
+        <v>0.01435155607759953</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.2386681288480759</v>
+        <v>0.01281863451004028</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.3924600780010223</v>
+        <v>0.02086400240659714</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.2130749821662903</v>
+        <v>0.1182455122470856</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01451454032212496</v>
+        <v>0.09672792255878448</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.7036698460578918</v>
+        <v>0.2186241447925568</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.4169427752494812</v>
+        <v>0.03851216286420822</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1242791637778282</v>
+        <v>0.03848845511674881</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.09826403111219406</v>
+        <v>0.1772910803556442</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.1000756397843361</v>
+        <v>0.1449422985315323</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.06756807863712311</v>
+        <v>0.006760457996279001</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.2862851321697235</v>
+        <v>0.01855374872684479</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.2964503169059753</v>
+        <v>0.09111443161964417</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.02469556406140327</v>
+        <v>0.02876472473144531</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.2687287032604218</v>
+        <v>0.09647747129201889</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.1010457202792168</v>
+        <v>0.004403919912874699</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.02998317033052444</v>
+        <v>0.01502687111496925</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.226481169462204</v>
+        <v>0.0002775304019451141</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.04585964232683182</v>
+        <v>0.02862193435430527</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.08848642557859421</v>
+        <v>0.09076074510812759</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.5746686458587646</v>
+        <v>0.1555012166500092</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.5030859112739563</v>
+        <v>0.1180729493498802</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.07748121023178101</v>
+        <v>0.2046739310026169</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.230992317199707</v>
+        <v>0.3624886274337769</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.159982442855835</v>
+        <v>0.06792280822992325</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1201453655958176</v>
+        <v>0.1762500554323196</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.1058556661009789</v>
+        <v>0.08585122227668762</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.6910796165466309</v>
+        <v>0.05878377333283424</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.07315735518932343</v>
+        <v>0.01996838301420212</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2373363524675369</v>
+        <v>0.02201245538890362</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.3076159954071045</v>
+        <v>0.06672448664903641</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.01066523604094982</v>
+        <v>0.05490929260849953</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.3859670162200928</v>
+        <v>0.06505993008613586</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.1220439672470093</v>
+        <v>0.001450427807867527</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.01177015900611877</v>
+        <v>0.01835458911955357</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.1703799217939377</v>
+        <v>0.004650712478905916</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.1273140013217926</v>
+        <v>0.03904807567596436</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0175265446305275</v>
+        <v>0.2355527579784393</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8088420629501343</v>
+        <v>0.2027574628591537</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.6243980526924133</v>
+        <v>0.1467201560735703</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.3099378049373627</v>
+        <v>0.1761052459478378</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0358922965824604</v>
+        <v>0.03908813372254372</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.1749071627855301</v>
+        <v>0.2285185307264328</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.1818347275257111</v>
+        <v>0.07757335901260376</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.5204092264175415</v>
+        <v>0.07319269329309464</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.3477562665939331</v>
+        <v>0.01542307808995247</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0665525496006012</v>
+        <v>0.08093360066413879</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.3772312998771667</v>
+        <v>0.07168982923030853</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01627388969063759</v>
+        <v>0.08849644660949707</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.160331055521965</v>
+        <v>0.003859838470816612</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.002075016498565674</v>
+        <v>0.1388249397277832</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1032959818840027</v>
+        <v>0.07930156588554382</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.25475013256073</v>
+        <v>0.0844389796257019</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.2765196561813354</v>
+        <v>0.104078397154808</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.01598074287176132</v>
+        <v>0.06398724019527435</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.07571835815906525</v>
+        <v>0.03256281092762947</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.1533767282962799</v>
+        <v>0.02899969555437565</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.04878969490528107</v>
+        <v>0.05313242971897125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.1331729590892792</v>
+        <v>0.1293906569480896</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.03182175010442734</v>
+        <v>0.03726445138454437</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.1841163784265518</v>
+        <v>0.03933241590857506</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.10824815928936</v>
+        <v>0.07052126526832581</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.06196685880422592</v>
+        <v>0.001237500458955765</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2230036705732346</v>
+        <v>0.1023423224687576</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.2005139142274857</v>
+        <v>0.0414726659655571</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.09247970581054688</v>
+        <v>0.05973868817090988</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.3998165130615234</v>
+        <v>0.1498475223779678</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2557812631130219</v>
+        <v>0.140850231051445</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.343431830406189</v>
+        <v>0.04406923800706863</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.4872186183929443</v>
+        <v>0.04106177389621735</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.08234772831201553</v>
+        <v>0.03566734865307808</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.01547533459961414</v>
+        <v>0.03108387626707554</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.01343902386724949</v>
+        <v>0.001048570848070085</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0521978959441185</v>
+        <v>0.101195715367794</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.222001701593399</v>
+        <v>0.005969678051769733</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1606731116771698</v>
+        <v>0.005060820840299129</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.05757249146699905</v>
+        <v>0.04535339027643204</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1880944222211838</v>
+        <v>0.1048769503831863</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.05702870339155197</v>
+        <v>0.01520348619669676</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.2734943926334381</v>
+        <v>0.01318739354610443</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.02128416299819946</v>
+        <v>0.01565404236316681</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0837557390332222</v>
+        <v>0.06585537642240524</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.1460434198379517</v>
+        <v>0.01922998577356339</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.1976950615644455</v>
+        <v>0.002706458326429129</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.3198875188827515</v>
+        <v>0.06901400536298752</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.03758905082941055</v>
+        <v>0.01709022372961044</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.2968292236328125</v>
+        <v>0.07556340098381042</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.02217273414134979</v>
+        <v>0.01780929043889046</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.01424847915768623</v>
+        <v>0.004123513586819172</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.1817366629838943</v>
+        <v>0.01950329542160034</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.1075153276324272</v>
+        <v>0.01832619681954384</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0401163324713707</v>
+        <v>0.06887118518352509</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.001287661492824554</v>
+        <v>0.01371497288346291</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.2676200270652771</v>
+        <v>0.01688976772129536</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.2432465106248856</v>
+        <v>0.1227325201034546</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.2820425927639008</v>
+        <v>0.0527186281979084</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.006147474050521851</v>
+        <v>0.04266133531928062</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.08497826755046844</v>
+        <v>0.102964386343956</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.3288062214851379</v>
+        <v>0.04288739711046219</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2591162323951721</v>
+        <v>0.04238808900117874</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.3448610305786133</v>
+        <v>0.04886918887495995</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.02795374393463135</v>
+        <v>0.1036126315593719</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.2496221214532852</v>
+        <v>0.00523848831653595</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.01780976355075836</v>
+        <v>0.01262808963656425</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4299573302268982</v>
+        <v>0.08076124638319016</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.3649227321147919</v>
+        <v>0.02085557207465172</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01407368201762438</v>
+        <v>0.05384822189807892</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.06943979114294052</v>
+        <v>0.2166218310594559</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.3616215288639069</v>
+        <v>0.04348264262080193</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.1492245197296143</v>
+        <v>0.01895125582814217</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.08374137431383133</v>
+        <v>0.1930986791849136</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.1679609715938568</v>
+        <v>0.04472805932164192</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.1089954450726509</v>
+        <v>0.06945891678333282</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.3698535561561584</v>
+        <v>0.0887434333562851</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.3130768835544586</v>
+        <v>0.05463756620883942</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.09684060513973236</v>
+        <v>0.02626324817538261</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.09510114789009094</v>
+        <v>0.1118650510907173</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.20197793841362</v>
+        <v>0.008870728313922882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.06535138189792633</v>
+        <v>0.01685184985399246</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3886400461196899</v>
+        <v>0.3225304484367371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4859535694122314</v>
+        <v>0.06026396155357361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01886960491538048</v>
+        <v>0.1289309710264206</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02994790300726891</v>
+        <v>0.3716041445732117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03325960785150528</v>
+        <v>0.06747362017631531</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07484906911849976</v>
+        <v>0.1638311296701431</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03079257160425186</v>
+        <v>0.1130078136920929</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1425202786922455</v>
+        <v>0.01136450655758381</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01819300279021263</v>
+        <v>0.06072391197085381</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4361223578453064</v>
+        <v>0.2116725444793701</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5328871607780457</v>
+        <v>0.0284684132784605</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1615822613239288</v>
+        <v>0.02003432437777519</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04979347065091133</v>
+        <v>0.3165924847126007</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05109511315822601</v>
+        <v>0.06899277865886688</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0116331372410059</v>
+        <v>0.1577488929033279</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04357559978961945</v>
+        <v>0.02641192637383938</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1016807183623314</v>
+        <v>0.01147108804434538</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01772258058190346</v>
+        <v>0.01932864263653755</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07515072077512741</v>
+        <v>0.05279630795121193</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05173228681087494</v>
+        <v>0.03320562466979027</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05933728814125061</v>
+        <v>0.07179581373929977</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04255202040076256</v>
+        <v>0.1352165788412094</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08864005655050278</v>
+        <v>0.07033582776784897</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0646061971783638</v>
+        <v>0.04803266748785973</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03789352998137474</v>
+        <v>0.03037852235138416</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02621154114603996</v>
+        <v>0.001367766410112381</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0795065239071846</v>
+        <v>0.04179259389638901</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1203178837895393</v>
+        <v>0.02525912784039974</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04818378761410713</v>
+        <v>0.0005872966721653938</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.06419862061738968</v>
+        <v>0.04710710793733597</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0166479405015707</v>
+        <v>0.03026901558041573</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02868316136300564</v>
+        <v>0.02918775007128716</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.122676208615303</v>
+        <v>0.04207653924822807</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05979937687516212</v>
+        <v>0.02109715901315212</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1398773640394211</v>
+        <v>0.02291867323219776</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.02321725711226463</v>
+        <v>0.03116827458143234</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1630341708660126</v>
+        <v>0.09839817136526108</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1936682462692261</v>
+        <v>0.02189290523529053</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.003698337823152542</v>
+        <v>0.03331858292222023</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.03927064314484596</v>
+        <v>0.02298347093164921</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.03275372460484505</v>
+        <v>0.05997204780578613</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02458829805254936</v>
+        <v>0.03168043494224548</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05817066878080368</v>
+        <v>0.03871405869722366</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01041898876428604</v>
+        <v>0.002941550686955452</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.08994762599468231</v>
+        <v>0.01624683476984501</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.238167405128479</v>
+        <v>0.2402889728546143</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.2196020931005478</v>
+        <v>0.06003652513027191</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02146948128938675</v>
+        <v>0.06830567866563797</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.08502934128046036</v>
+        <v>0.2044351100921631</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.06740719825029373</v>
+        <v>0.05825157836079597</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.08510676771402359</v>
+        <v>0.007611773442476988</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.09612775593996048</v>
+        <v>0.03913501277565956</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.06236467137932777</v>
+        <v>0.02260592393577099</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.131975919008255</v>
+        <v>0.02413654886186123</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1232886016368866</v>
+        <v>0.04617760702967644</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.152627170085907</v>
+        <v>0.01735063642263412</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01865225657820702</v>
+        <v>0.004305491223931313</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1375540345907211</v>
+        <v>0.1552920937538147</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.097250796854496</v>
+        <v>0.02333812043070793</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0536402091383934</v>
+        <v>0.07006271928548813</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02177019603550434</v>
+        <v>0.001442359760403633</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.008772667497396469</v>
+        <v>0.0009508989751338959</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.05353686213493347</v>
+        <v>0.07992220669984818</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.08576948195695877</v>
+        <v>0.02415809594094753</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.03530183434486389</v>
+        <v>0.01108353026211262</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0616656169295311</v>
+        <v>0.04363453015685081</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1618858873844147</v>
+        <v>0.02498443797230721</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.1601838916540146</v>
+        <v>0.03968736901879311</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.03356907889246941</v>
+        <v>0.01582879573106766</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.07419263571500778</v>
+        <v>0.02920099720358849</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.03669770434498787</v>
+        <v>0.005201745312660933</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.05755831301212311</v>
+        <v>0.04377039521932602</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.1663452535867691</v>
+        <v>0.1844283938407898</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1700624525547028</v>
+        <v>0.03069517388939857</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0437980443239212</v>
+        <v>0.04815018549561501</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.004084031097590923</v>
+        <v>0.1784005463123322</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.01135488692671061</v>
+        <v>0.1198418885469437</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01731557585299015</v>
+        <v>0.04305370524525642</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.1213872730731964</v>
+        <v>0.01781027391552925</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.08514248579740524</v>
+        <v>0.01040850207209587</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.02065278775990009</v>
+        <v>0.02354498952627182</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.08069894462823868</v>
+        <v>0.03333641216158867</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0697324201464653</v>
+        <v>0.01984863169491291</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0385918989777565</v>
+        <v>0.02696945518255234</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.02731605432927608</v>
+        <v>0.05506346002221107</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01775777712464333</v>
+        <v>0.04806113615632057</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0378454327583313</v>
+        <v>0.005528461188077927</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0001226833701366559</v>
+        <v>0.01201316900551319</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.02007846906781197</v>
+        <v>0.0138519536703825</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.008369226008653641</v>
+        <v>0.0211312472820282</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01261922623962164</v>
+        <v>0.0246626827865839</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.05204004794359207</v>
+        <v>0.01387666538357735</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.006416309624910355</v>
+        <v>0.04942887648940086</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.05574402958154678</v>
+        <v>0.0725397989153862</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0278598926961422</v>
+        <v>0.009042234160006046</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.006912186276167631</v>
+        <v>0.09359645843505859</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001447708578780293</v>
+        <v>0.09050349146127701</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01048874203115702</v>
+        <v>0.01377031486481428</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.01903090067207813</v>
+        <v>0.02441686764359474</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0541168637573719</v>
+        <v>0.01951408386230469</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.05114085599780083</v>
+        <v>0.01785886101424694</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.03128575161099434</v>
+        <v>0.03310329094529152</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0132643785327673</v>
+        <v>0.05695107579231262</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0101272314786911</v>
+        <v>0.07282555848360062</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.03926791623234749</v>
+        <v>0.008023696951568127</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01044637523591518</v>
+        <v>0.006371136754751205</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.01282008178532124</v>
+        <v>0.003733045421540737</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.1070806533098221</v>
+        <v>0.02456508204340935</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.09940767288208008</v>
+        <v>0.1034613475203514</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0008887872099876404</v>
+        <v>0.01993395946919918</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.02337977662682533</v>
+        <v>0.1148405000567436</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.003635745495557785</v>
+        <v>0.01187849603593349</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.002980329096317291</v>
+        <v>0.02790631353855133</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.04022951424121857</v>
+        <v>0.1074088662862778</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.06955274194478989</v>
+        <v>0.02941249497234821</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.01262374315410852</v>
+        <v>0.01389073953032494</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.003565536346286535</v>
+        <v>0.06692437827587128</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.03836603835225105</v>
+        <v>0.04770239815115929</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.03559888899326324</v>
+        <v>0.0629202127456665</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0403810441493988</v>
+        <v>0.0841389000415802</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.1156673431396484</v>
+        <v>0.02954640053212643</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.08119223266839981</v>
+        <v>0.01898430846631527</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.024044344201684</v>
+        <v>0.001458598300814629</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0190473236143589</v>
+        <v>0.08742819726467133</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.01188427023589611</v>
+        <v>0.01619182527065277</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0757860392332077</v>
+        <v>0.003071912098675966</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.005138672888278961</v>
+        <v>0.05093097686767578</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.05378047749400139</v>
+        <v>0.03398137539625168</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.004631391260772943</v>
+        <v>0.0113099692389369</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02048827894032001</v>
+        <v>0.08071279525756836</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.08292327076196671</v>
+        <v>0.01551257725805044</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.06238967925310135</v>
+        <v>0.0006053997203707695</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.03762673586606979</v>
+        <v>0.02871899120509624</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.01977305486798286</v>
+        <v>0.03636392205953598</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.02950439415872097</v>
+        <v>0.02007152512669563</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.02111003175377846</v>
+        <v>0.01058132667094469</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02281201630830765</v>
+        <v>0.006180757191032171</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.04695660248398781</v>
+        <v>0.007697691675275564</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01041589118540287</v>
+        <v>0.06352329254150391</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.03892593458294868</v>
+        <v>0.04692155122756958</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.06014622002840042</v>
+        <v>0.01439467445015907</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.02583388797938824</v>
+        <v>0.0109820906072855</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.04363938048481941</v>
+        <v>0.009486589580774307</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.03799067437648773</v>
+        <v>0.01190989185124636</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.02224031277000904</v>
+        <v>0.03019812703132629</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0291408896446228</v>
+        <v>0.004350076429545879</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.01104834675788879</v>
+        <v>0.003815991804003716</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.00994059257209301</v>
+        <v>0.001513409893959761</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.03898768126964569</v>
+        <v>0.2110254913568497</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01594510488212109</v>
+        <v>0.006547960918396711</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.01411082781851292</v>
+        <v>0.07693216949701309</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0941375270485878</v>
+        <v>0.03502422571182251</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.04787620902061462</v>
+        <v>0.0271914079785347</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0471217930316925</v>
+        <v>0.008995683863759041</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.07000099122524261</v>
+        <v>0.02585525624454021</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.03310969471931458</v>
+        <v>0.03893575072288513</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.005372816696763039</v>
+        <v>0.06138391047716141</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.01203180570155382</v>
+        <v>0.05608092993497849</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.04604523628950119</v>
+        <v>0.005932576023042202</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.007003717124462128</v>
+        <v>0.01553716231137514</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.03204603865742683</v>
+        <v>0.001384691800922155</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.005831033922731876</v>
+        <v>0.02851181104779243</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.1146794557571411</v>
+        <v>0.06700659543275833</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.2155676484107971</v>
+        <v>0.01119966991245747</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01638182252645493</v>
+        <v>0.05779164656996727</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.04950801283121109</v>
+        <v>0.002814237028360367</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.04281791299581528</v>
+        <v>0.0485951229929924</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.008430952206254005</v>
+        <v>0.001485452055931091</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.06341111660003662</v>
+        <v>0.01673902198672295</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.1056857109069824</v>
+        <v>0.02240478619933128</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.1208009049296379</v>
+        <v>0.02233773842453957</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.1151147037744522</v>
+        <v>0.06839756667613983</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.04751474782824516</v>
+        <v>0.04688031226396561</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.08371379971504211</v>
+        <v>0.04038337618112564</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02620295993983746</v>
+        <v>0.1519271731376648</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01287360582500696</v>
+        <v>0.02023418247699738</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.008651718497276306</v>
+        <v>0.04348175227642059</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.05918153375387192</v>
+        <v>0.04727455973625183</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.09359433501958847</v>
+        <v>0.02665799111127853</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0340723842382431</v>
+        <v>0.03502035140991211</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.02415401674807072</v>
+        <v>0.014599634334445</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.05437673628330231</v>
+        <v>0.06268990039825439</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.06066648662090302</v>
+        <v>0.04199064522981644</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.1334730386734009</v>
+        <v>0.09066049754619598</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00113077845890075</v>
+        <v>0.0357036255300045</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0691530629992485</v>
+        <v>0.1007775887846947</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.03943715244531631</v>
+        <v>0.005875503644347191</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.03955415263772011</v>
+        <v>0.01495830714702606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.0001386082731187344</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.003720554290339351</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0002309995034011081</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001910562277771533</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.002091638743877411</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.001418681349605322</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0005357424379326403</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.476366252172738e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.0003152618883177638</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.000109918080852367</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.003178672399371862</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.0002937218232546002</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0003805970191024244</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.001271143322810531</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.000816843647044152</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.00095962273189798</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.0007132311584427953</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.631874617189169e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>8.482608973281458e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.0001819163735490292</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.885804860852659e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.0006039673462510109</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.253028626204468e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.0002733087749220431</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.0004428486863616854</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.0001901411305880174</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.0005474661593325436</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>9.979400783777237e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.224543615942821e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.0004701527068391442</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.0007679859991185367</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.0003877205890603364</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.0003795515222009271</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.288471634732559e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>0.0006001172005198896</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>0.000404618593165651</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>0.0001821512851165608</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.0006157727912068367</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>0.000238530890783295</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>9.996353037422523e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>3.672441744129173e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.0004340341547504067</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.0001194404612760991</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>0.000342138868290931</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>0.0003383731527719647</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>0.0005038776434957981</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.001884965924546123</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>2.97952356049791e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.001807984081096947</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>0.001456532976590097</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>0.0008184247999452055</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>0.0006901276065036654</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>0.0002868784358724952</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>0.0007321796729229391</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>0.0004185512661933899</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.0005756508908234537</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>0.0005289760301820934</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>6.259151268750429e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>0.001166684320196509</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>0.000474061060231179</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>8.709060784894973e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>0.000787838245742023</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>0.0003273831389378756</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>0.0001437092723790556</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.0003787893801927567</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>0.0002608980285003781</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>6.808697071392089e-05</v>
       </c>
       <c r="BP6" t="n">
-        <v>0</v>
+        <v>0.0009475864935666323</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.0002088538749376312</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>5.747249451815151e-05</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>0.0005717500462196767</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>6.271926395129412e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>0.0004669974441640079</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.001307661063037813</v>
       </c>
       <c r="BW6" t="n">
-        <v>0</v>
+        <v>7.043092045933008e-05</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.0006796065717935562</v>
       </c>
       <c r="BY6" t="n">
-        <v>0</v>
+        <v>0.0006320350803434849</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.000173745458596386</v>
       </c>
       <c r="CA6" t="n">
-        <v>0</v>
+        <v>0.0003769708564504981</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>9.052166569745168e-05</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>0.0005026119761168957</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>9.601779311196879e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>0.0003913495747838169</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>0.0001933717867359519</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.0003910056839231402</v>
       </c>
       <c r="CH6" t="n">
-        <v>0</v>
+        <v>4.445565718924627e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.0002261541085317731</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>5.47540548723191e-06</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>0.0001196681478177197</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>0.000410142878536135</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>3.042619391635526e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.0005067542078904808</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
+        <v>0.0001670529745751992</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>0.0007833045674487948</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0</v>
+        <v>7.724772149231285e-05</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>0.000823642301838845</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>0.001030551851727068</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>0.0004742545424960554</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>0.0001690234494162723</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>7.321206794586033e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>0.0004843796486966312</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>0.0002490436600055546</v>
       </c>
       <c r="CY6" t="n">
-        <v>0</v>
+        <v>0.0005489119794219732</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>0.0001476260367780924</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.0003798906109295785</v>
       </c>
       <c r="DB6" t="n">
-        <v>0</v>
+        <v>0.0001232583599630743</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>0.0001874707377282903</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>0.0003605942474678159</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>0.000144805817399174</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.000696835748385638</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>0.0004336155543569475</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.002453195163980126</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>0.001740113599225879</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.0001377367880195379</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>0.0009296572534367442</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>0.001216516364365816</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>0.0002158032439183444</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>0.000399493204895407</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>0.0003582770295906812</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>0.0008899194654077291</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>0.0002176416455768049</v>
       </c>
       <c r="DR6" t="n">
-        <v>0</v>
+        <v>0.0002054366923402995</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.0002903505810536444</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>0.0001815177965909243</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>0.0003016275004483759</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>0.0004862102796323597</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>0.0002096005191560835</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>5.055231304140761e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>0.0007111962768249214</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>0.0003930603561457247</v>
       </c>
       <c r="EA6" t="n">
-        <v>0</v>
+        <v>2.887215850932989e-05</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.0003014734829775989</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>0.0001453524164389819</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>0.0003838241682387888</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>0.0002965763560496271</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>0.0003786436282098293</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>0.0003025117330253124</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>0.0004120517696719617</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>3.342660784255713e-05</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0</v>
+        <v>0.0005677255103364587</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.0004729558131657541</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>7.856142474338412e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>3.004140489792917e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>0.0001675477833487093</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>7.024961814749986e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>6.339618266792968e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>0.0002432503242744133</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>0.0002790083235595375</v>
       </c>
       <c r="ES6" t="n">
-        <v>0</v>
+        <v>0.0001859673939179629</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.0006140758050605655</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>0.000254749960731715</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
+        <v>0.0003856272669509053</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>0.0001777495635906234</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>3.200824357918464e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.0004525848489720374</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>0.0001021881762426347</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.0004439156327862293</v>
       </c>
       <c r="FB6" t="n">
-        <v>0</v>
+        <v>5.017410512664355e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.0002409787412034348</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>0.0001017020986182615</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>0.0001114988554036245</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>0.0004430067201610655</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>0.0001061541188391857</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>0.0004920618957839906</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>5.060968760517426e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>0.0005876041250303388</v>
       </c>
       <c r="FK6" t="n">
-        <v>0</v>
+        <v>0.0003364443255122751</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>8.736518793739378e-05</v>
       </c>
       <c r="FM6" t="n">
-        <v>0</v>
+        <v>9.467679774388671e-06</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>0.00047828140668571</v>
       </c>
       <c r="FO6" t="n">
-        <v>0</v>
+        <v>0.0001295647380175069</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>0.0001132145771407522</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.0007463008514605463</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>3.508048393996432e-05</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.0008675287826918066</v>
       </c>
       <c r="FT6" t="n">
-        <v>0</v>
+        <v>0.000772991101257503</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.0002768593840301037</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>0.0001991205936064944</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>0.0001147357688751072</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>4.581687971949577e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>0.0001935619511641562</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>5.071511623100378e-06</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>0.0002117580734193325</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>0.0007534403121098876</v>
       </c>
       <c r="GC6" t="n">
-        <v>0</v>
+        <v>0.0008082689018920064</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>7.96788590378128e-05</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>0.001118556247092783</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>0.000189085621968843</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>5.462991612148471e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.01861057803034782</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2371256947517395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006445686332881451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1187348589301109</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0323340892791748</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.203238770365715</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001469207927584648</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.08297643065452576</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01685802266001701</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04856201261281967</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2230824679136276</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.004515244159847498</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.08597143739461899</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.003100891131907701</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1893228590488434</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.01312901824712753</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03677046671509743</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.005585072096437216</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.01078718341886997</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.01615801453590393</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.02153419330716133</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.03197560459375381</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0583316832780838</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0186696108430624</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.01893303729593754</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.05739665031433105</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.03486910462379456</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001438789069652557</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0133759044110775</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.009325931780040264</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.009861024096608162</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.01389772724360228</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0143308974802494</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.01284622400999069</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.008509773761034012</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0130384424701333</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.02094356715679169</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.04187099635601044</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.002297541126608849</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.008399352431297302</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0009102043695747852</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.02807123400270939</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.00256158341653645</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.01317024976015091</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.02483553253114223</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.03235190361738205</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.1736998409032822</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.005375235341489315</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.04496053233742714</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.01709465309977531</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1077655255794525</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.02394679933786392</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0204777829349041</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.06129929423332214</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0216589942574501</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.03791249915957451</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.04754414781928062</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.00249142711982131</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.03823554515838623</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.06128839775919914</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.01917595602571964</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.01999368704855442</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.01394461281597614</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0001503666862845421</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.0546487532556057</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.00672224722802639</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.01508929952979088</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.003939978778362274</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.001912229578010738</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.01697306707501411</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.006471746601164341</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.006727925501763821</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.01539248321205378</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.09007550776004791</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.01483060978353024</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.03765137121081352</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.02255133725702763</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.04176545515656471</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.01393814291805029</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.0002313493750989437</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.04003608599305153</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.001381583511829376</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.03101350367069244</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.02275220118463039</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.01631583645939827</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.005913358181715012</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.0315823070704937</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.01641953736543655</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.01131806336343288</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.02083336561918259</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.05034342035651207</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.007730855606496334</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.005318635143339634</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.0362873338162899</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.001192907337099314</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.006107674911618233</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.04923717677593231</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.04619910195469856</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.009500612504780293</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.0001195187214761972</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.02730012498795986</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.01881650649011135</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.02870979718863964</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.007997095584869385</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.03324554488062859</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.01652374491095543</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.02352634444832802</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.01090287044644356</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.005340783856809139</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.01120668277144432</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.007310524582862854</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.08527781814336777</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.04483778774738312</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.02795918844640255</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.004713171161711216</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.03878370299935341</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.02164205349981785</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.004920377396047115</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.0031406763009727</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.01693795807659626</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.0004337313584983349</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.008421801961958408</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.002283880952745676</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.00104664801619947</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.002834649290889502</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.02057269774377346</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.0001513669267296791</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.0252188928425312</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.01928079500794411</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.008103316649794579</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.00138934375718236</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.01551226247102022</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.0007104217074811459</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.004836912266910076</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0.0101972296833992</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.01348243094980717</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.03572700917720795</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.01130735781043768</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.007187223993241787</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>8.202483877539635e-05</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.02313658222556114</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.01592731103301048</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.006859187036752701</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.01097701955586672</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.001153502613306046</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.01492869574576616</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.01754457503557205</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.02199815027415752</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.01740813255310059</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.02959133125841618</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.03905221074819565</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0.06678984314203262</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0.005901198834180832</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.004123020451515913</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0.02567833662033081</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0.0155309671536088</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.02027012594044209</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.004942032974213362</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0.02759478241205215</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0.02859637886285782</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0.01527217030525208</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0.02188032492995262</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0.01078008860349655</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0.007210119161754847</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0.01567903906106949</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0.03749755769968033</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0.008984709158539772</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0.01825453341007233</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0.0005547641776502132</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0.01815658807754517</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0.01698459312319756</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0.01559801958501339</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0.03934814780950546</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0.03251191973686218</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0.0003659832291305065</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0.004876871593296528</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0.01117378659546375</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0.02655639685690403</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0.004022484645247459</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0.01491651218384504</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0.04654818028211594</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0.01586588658392429</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0.02829737588763237</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0.01245159562677145</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0.01304948329925537</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0.01801168918609619</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0.1004845723509789</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0.001938051544129848</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0.004058975260704756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.000144314777571708</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001869396190159023</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001237125543411821</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000392859656130895</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0004673385119531304</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0004175872600171715</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000289405114017427</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0002337529003852978</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0002795870532281697</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002041987463599071</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001648076227866113</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.456980605027638e-06</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0002343781525269151</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.928599370643497e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0003300730313640088</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0001585933787282556</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0001919291680678725</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0003656261833384633</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.659066224936396e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0002210674429079518</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.789417966501787e-05</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0001651412167120725</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0002051943447440863</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.040728112566285e-05</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.820397821778897e-05</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0003487916255835444</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0001241104037035257</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.000136229646159336</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0001441746426280588</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.813095877878368e-05</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9.937054710462689e-05</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.070603194530122e-05</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5.553246955969371e-05</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.011488974560052e-05</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.951438263058662e-05</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.024465306429192e-05</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0003018919960595667</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0001816431031329557</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3.401021604076959e-05</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0001500809448771179</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0001624881697352976</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.00012848453479819</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0001283932651858777</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.588609666214325e-05</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0001367280056001619</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.662845119833946e-05</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.001121829729527235</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0001618846436031163</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.812497981125489e-05</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.229076436487958e-05</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0001172524498542771</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0004197589005343616</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.0001679434790275991</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.0001625605946173891</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>3.578893665689975e-05</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.0002903149579651654</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.0002992796071339399</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>9.877493721432984e-05</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.000282326975138858</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0002185789489885792</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>5.221756873652339e-05</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.0002228934463346377</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.0003162974899169058</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.0001090959849534556</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.0001654686639085412</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>4.707854895968921e-05</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>8.407361747231334e-05</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>8.476828952552751e-05</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>2.976757787109818e-05</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.0001225361338583753</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.372489143454004e-05</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>8.294339932035655e-05</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3.47357417922467e-05</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.0006513716070912778</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.0001497179036960006</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>8.579660061514005e-05</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>7.057842594804242e-05</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>8.509851795679424e-06</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>5.072478234069422e-05</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>3.524679414113052e-06</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>4.377466029836796e-05</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>8.167060877894983e-05</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.0003189050767105073</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>6.631863652728498e-05</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>4.623439235729165e-05</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6.810612831031904e-05</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>1.166157835541526e-05</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.0001224772859131917</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>5.08287557750009e-05</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>8.686283399583772e-05</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.0004538365465123206</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>6.880261935293674e-05</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>7.271065260283649e-05</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.0005464509013108909</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.0003382407012395561</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.0004243392031639814</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.0003089748206548393</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.0001630076149012893</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.0002466056030243635</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>7.479024498024955e-05</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.0003035457921214402</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>6.857843982288614e-05</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.0001324387994827703</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>9.321765537606552e-05</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>3.159762491122819e-05</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0.0001223819999722764</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>9.424450399819762e-05</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.0001018870752886869</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.0001602504344191402</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.0002697846502996981</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.0001060251670423895</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.0002537966065574437</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.0005414252518676221</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.0007134765619412065</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>6.012119411025196e-05</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>9.285258420277387e-05</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.0004017963947262615</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.0001132622419390827</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.0001103864924516529</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.0001525800325907767</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.0001601546246092767</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>7.784319313941523e-05</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>8.210854139178991e-05</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.0002380119840381667</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0.0001968070573639125</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0.0001036545509123243</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>4.389646710478701e-05</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.0002336534962523729</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>6.561427289852872e-05</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0.0002411552704870701</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.000179271912202239</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>6.672294693998992e-05</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>3.868046042043716e-05</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.0001862592907855287</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0.0003856640250887722</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.0002549297641962767</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.0004440037009771913</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>2.573709934949875e-05</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>1.034650631481782e-05</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>4.685897238232428e-06</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.0002432379842502996</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.000168841754202731</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>9.037042764248326e-05</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>2.785430297080893e-05</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>8.689709648024291e-05</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.0001167322843684815</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.0001265308383153751</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.0001812790287658572</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.0001911258441396058</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>1.449551928089932e-05</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.000333867414155975</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0.0002429642336210236</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0.0001060033100657165</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>9.93850699160248e-05</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0.0003124684153590351</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>5.056027293903753e-05</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>2.398886499577202e-05</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>6.406837928807363e-05</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>9.515457350062206e-06</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0.0001864988298621029</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>7.94623265392147e-05</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0.0001460718340240419</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>9.368343307869509e-05</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>9.774856880540028e-05</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0.0001715690596029162</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0.0002771826984826475</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0.0001200075348606333</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>3.753237979253754e-05</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0.0001360860042041168</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>7.71599734434858e-05</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0.0001498602796345949</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.0002710186818148941</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0.0001263443264178932</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0.0002092294016620144</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0.0002723265788517892</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>3.111476326012053e-05</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0.0002428536681691185</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>7.982909301063046e-05</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>8.873403203324415e-07</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>8.96219426067546e-05</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0.0003071661340072751</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>8.165003237081692e-05</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>6.751508772140369e-05</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>1.665238960413262e-05</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>9.690553997643292e-05</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0.0001629586913622916</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>1.806791988201439e-05</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0.0001598936360096559</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0.0001296707923756912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.00167021865490824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.457235137233511e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001039326598402113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0004113095346838236</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.604559843661264e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001741273095831275</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0002676239528227597</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0008560880087316036</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.276838469901122e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001234577037394047</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001699691492831334</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.443724952172488e-05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000219470530282706</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.000489481317345053</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.001377980457618833</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0006541566690430045</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.000984865939244628</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0001051660001394339</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0001898791088024154</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0005104299052618444</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.203335654688999e-05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0004628211027011275</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0006969345267862082</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0003153313009534031</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0003236066550016403</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0001597583468537778</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.049503958318383e-05</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0003404128656256944</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0003432836092542857</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0001445720554329455</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.105939534492791e-05</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.436747697880492e-05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0002059012185782194</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.703036105027422e-05</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0002679356839507818</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.354572593001649e-05</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0003242402744945139</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6.94378322805278e-05</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.000275331549346447</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.000114569251309149</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0001353005063720047</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>3.333595668664202e-05</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0001418007013853639</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>7.619181269546971e-05</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.997238905460108e-05</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0009070850792340934</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.000221832815441303</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8.402916137129068e-06</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0004851377452723682</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.001159089268185198</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0007836536387912929</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.000214110070373863</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.0004195109358988702</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4.156238719588146e-05</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.000372301583411172</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0001624443248147145</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9.064738696906716e-05</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.000129853084217757</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.0003903942997567356</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.0003902594035025686</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.0003353790671098977</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0004055915051139891</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>3.783356805797666e-05</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.205625605711248e-05</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.0002696837473195046</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>9.568194218445569e-05</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.0004294213431421667</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.0003837457334157079</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>4.100034857401624e-05</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.0003631241852417588</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.0004840173642151058</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.000231667043408379</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.0004505117249209434</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.000261965295067057</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.000180715651367791</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0002590147196315229</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.0005098658730275929</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.000585670059081167</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>4.707853804575279e-05</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0001970465818885714</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>1.544131737318821e-05</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.0003249882720410824</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.0002376708289375529</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>2.394972034380771e-05</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>1.570706444908865e-05</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>3.818058030446991e-05</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0002575337130110711</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>2.672460686881095e-05</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.0003021221491508186</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>3.335371002322063e-05</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>3.04564819089137e-05</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>8.544472802896053e-05</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>5.306265666149557e-05</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>2.838301043084357e-05</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.0007699021953158081</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.0001226038439199328</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.0002251061087008566</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>6.472003587987274e-05</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.0001393267011735588</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.0002993880480062217</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.0002217972651124001</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>4.503293166635558e-05</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>9.8626253020484e-05</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>3.361049311934039e-05</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0.0002509529876988381</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>9.168230462819338e-06</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.000317820260534063</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>2.331703944946639e-05</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.0001015603847918101</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>4.186153091723099e-06</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>8.462984260404482e-05</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.0002712910354603082</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.001021156320348382</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.0001048705671564676</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>5.082425923319533e-05</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.0004910093848593533</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.0003435872786212713</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.0001932077575474977</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>9.108742233365774e-05</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.0001477284531574696</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.0002956194803118706</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.0002545712632127106</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0.0002335230819880962</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>1.033703301800415e-05</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0.0004397512238938361</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0.0001359848247375339</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>2.156382834073156e-06</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>0.000174379616510123</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>8.831164450384676e-06</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>0.0001053648957167752</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>6.966355431359261e-05</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0.0004054703167639673</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0.0002119124983437359</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0.000367523287422955</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0.0001539886288810521</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0.0002663191989995539</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>0.0004039595078211278</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>1.525594143458875e-05</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.0001829966640798375</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.0001377759617753327</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0.0001358421868644655</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>4.225572774885222e-05</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>1.93957475858042e-05</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>6.253326864680275e-05</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>9.829392365645617e-05</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0.0003070847596973181</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>7.616166840307415e-05</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.000132653716718778</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0.0004557844949886203</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>8.481410623062402e-05</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>2.369064895901829e-05</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>6.031319935573265e-05</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>2.31600170081947e-05</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0.0002573538513388485</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>0.0001832035486586392</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>4.149982851231471e-05</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>7.206894224509597e-05</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>7.042604556772858e-05</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>0.0002192361571360379</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>5.375863838708028e-05</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>0.0004133410402573645</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>5.782567313872278e-07</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0.0001954740146175027</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0.0002578626153990626</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0.000141154756420292</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>6.83922553434968e-05</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0.0001891303836600855</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>0.0002186479250667617</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>5.577541378443129e-05</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0.0001239460834767669</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>6.068305083317682e-06</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>0.0001530023582745343</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>0.00013038631004747</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>1.128824078477919e-05</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>0.0004744056495837867</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>2.861343455151655e-05</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>0.0004335285630077124</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>0.000273186044069007</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>5.068710379418917e-05</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>0.0001207228560815565</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>7.045459642540663e-05</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>0.0002105933090206236</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>2.326890535186976e-05</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>0.0001587430451763794</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>0.0001496007316745818</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>0.0003080392198171467</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>0.0002867106813937426</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>4.808702215086669e-06</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>0.0001312531239818782</v>
       </c>
     </row>
   </sheetData>
